--- a/Insurance/policyEffectiveDate.xlsx
+++ b/Insurance/policyEffectiveDate.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="15000" windowHeight="5955"/>
   </bookViews>
   <sheets>
-    <sheet name="EffectiveDate" sheetId="1" r:id="rId1"/>
+    <sheet name="policyEffectiveDate" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:B4"/>
@@ -15,21 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
-    <t>categories</t>
+    <t>EffectivePolicecategories:range</t>
   </si>
   <si>
-    <t>range</t>
+    <t>CurrentDate</t>
   </si>
   <si>
-    <t>onemonthlater</t>
+    <t>ResultDate</t>
   </si>
   <si>
-    <t>exactlytendays</t>
+    <t>OneMonthLater:1</t>
   </si>
   <si>
-    <t>onemothearlier</t>
+    <t>2019/11/26</t>
+  </si>
+  <si>
+    <t>2019/12/26</t>
+  </si>
+  <si>
+    <t>ExactlyTenDays:10</t>
+  </si>
+  <si>
+    <t>2019/12/06</t>
+  </si>
+  <si>
+    <t>OneMonthEarlier:-1</t>
+  </si>
+  <si>
+    <t>2019/10/26</t>
   </si>
 </sst>
 </file>
@@ -37,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,18 +66,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,6 +82,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -82,6 +98,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -90,23 +113,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,23 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,52 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,12 +219,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -222,169 +249,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,18 +415,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,17 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -481,17 +493,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,148 +515,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,48 +983,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="27.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="22.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
